--- a/MT.xlsx
+++ b/MT.xlsx
@@ -43,7 +43,7 @@
     <t xml:space="preserve">*</t>
   </si>
   <si>
-    <t xml:space="preserve">IIII</t>
+    <t xml:space="preserve">IIIII</t>
   </si>
   <si>
     <t xml:space="preserve">L</t>
@@ -209,10 +209,10 @@
   <dimension ref="B2:N16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J10" activeCellId="0" sqref="J10"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F2" s="1"/>
@@ -317,11 +317,11 @@
       </c>
       <c r="C6" s="3" t="str">
         <f aca="false">_xlfn.CONCAT("1-",LEN(C4))</f>
-        <v>1-4</v>
+        <v>1-5</v>
       </c>
       <c r="D6" s="3" t="n">
         <f aca="false">LEN(C4)+1</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>1</v>

--- a/MT.xlsx
+++ b/MT.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="17">
   <si>
     <t xml:space="preserve">EJEMPLOS</t>
   </si>
@@ -67,93 +67,31 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">~</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">* w *</t>
+      <t xml:space="preserve">~* w *~ → ~* w I *~;  POS FINAL =  n</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">~</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> → </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">~</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">* w I *</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">~;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">  POS FINAL =  n</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">*</t>
   </si>
   <si>
-    <t xml:space="preserve">III*II</t>
+    <t xml:space="preserve">IIII</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POSICIONES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I</t>
   </si>
   <si>
     <t xml:space="preserve">R</t>
   </si>
   <si>
-    <t xml:space="preserve">L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POSICIONES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I</t>
-  </si>
-  <si>
     <t xml:space="preserve">H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">g</t>
   </si>
   <si>
     <t xml:space="preserve">POS INICIAL = n, * w II * → * I w ***; POS FINAL = tras cadena</t>
@@ -169,7 +107,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -203,11 +141,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u val="single"/>
@@ -286,7 +219,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -318,7 +251,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -405,11 +338,11 @@
   </sheetPr>
   <dimension ref="B1:N35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="7.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="11" style="0" width="20.41"/>
@@ -468,7 +401,7 @@
         <v>8</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F4" s="7" t="n">
         <v>0</v>
@@ -480,7 +413,7 @@
         <v>10</v>
       </c>
       <c r="I4" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="4" t="n">
         <v>0</v>
@@ -489,7 +422,7 @@
         <v>8</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N4" s="4" t="n">
         <v>0</v>
@@ -497,7 +430,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -505,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="N5" s="4" t="n">
         <v>1</v>
@@ -532,11 +465,11 @@
       </c>
       <c r="C6" s="4" t="str">
         <f aca="false">_xlfn.CONCAT("1-",LEN(C4))</f>
-        <v>1-6</v>
+        <v>1-4</v>
       </c>
       <c r="D6" s="4" t="n">
         <f aca="false">LEN(C4)+1</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F6" s="7" t="n">
         <v>1</v>
@@ -545,7 +478,7 @@
         <v>8</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I6" s="7" t="n">
         <v>2</v>
@@ -557,7 +490,7 @@
         <v>8</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N6" s="4" t="n">
         <v>2</v>
@@ -568,22 +501,22 @@
         <v>1</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="N7" s="4" t="n">
         <v>1</v>
@@ -597,7 +530,7 @@
         <v>8</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I8" s="7" t="n">
         <v>3</v>
@@ -622,11 +555,11 @@
         <v>2</v>
       </c>
       <c r="G9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="7" t="s">
-        <v>10</v>
-      </c>
       <c r="I9" s="7" t="n">
         <v>2</v>
       </c>
@@ -634,10 +567,10 @@
         <v>2</v>
       </c>
       <c r="L9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="N9" s="4" t="n">
         <v>3</v>
@@ -651,7 +584,7 @@
         <v>8</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I10" s="7" t="n">
         <v>4</v>
@@ -674,22 +607,22 @@
         <v>3</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="K11" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I11" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="N11" s="4" t="n">
         <v>3</v>
@@ -718,7 +651,7 @@
         <v>4</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>8</v>
@@ -727,7 +660,7 @@
         <v>4</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
@@ -745,7 +678,7 @@
         <v>8</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N14" s="7" t="n">
         <v>1</v>
@@ -760,10 +693,10 @@
         <v>0</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N15" s="7" t="n">
         <v>1</v>
@@ -781,7 +714,7 @@
         <v>8</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N16" s="7" t="n">
         <v>2</v>
@@ -792,10 +725,10 @@
         <v>1</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N17" s="7" t="n">
         <v>1</v>
@@ -809,7 +742,7 @@
         <v>8</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N18" s="7" t="n">
         <v>3</v>
@@ -820,10 +753,10 @@
         <v>2</v>
       </c>
       <c r="L19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M19" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="M19" s="7" t="s">
-        <v>10</v>
       </c>
       <c r="N19" s="7" t="n">
         <v>2</v>
@@ -837,7 +770,7 @@
         <v>8</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N20" s="7" t="n">
         <v>4</v>
@@ -848,7 +781,7 @@
         <v>3</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M21" s="7" t="s">
         <v>8</v>
@@ -876,7 +809,7 @@
         <v>4</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M23" s="4" t="s">
         <v>8</v>
@@ -887,7 +820,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K25" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
@@ -901,7 +834,7 @@
         <v>8</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N26" s="7" t="n">
         <v>0</v>
@@ -912,10 +845,10 @@
         <v>0</v>
       </c>
       <c r="L27" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M27" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="M27" s="7" t="s">
-        <v>10</v>
       </c>
       <c r="N27" s="7" t="n">
         <v>1</v>
@@ -929,7 +862,7 @@
         <v>8</v>
       </c>
       <c r="M28" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N28" s="7" t="n">
         <v>2</v>
@@ -940,10 +873,10 @@
         <v>1</v>
       </c>
       <c r="L29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M29" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="M29" s="7" t="s">
-        <v>10</v>
       </c>
       <c r="N29" s="7" t="n">
         <v>1</v>
@@ -957,7 +890,7 @@
         <v>8</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N30" s="7" t="n">
         <v>3</v>
@@ -968,10 +901,10 @@
         <v>2</v>
       </c>
       <c r="L31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M31" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="M31" s="7" t="s">
-        <v>10</v>
       </c>
       <c r="N31" s="7" t="n">
         <v>2</v>
@@ -985,7 +918,7 @@
         <v>8</v>
       </c>
       <c r="M32" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N32" s="7" t="n">
         <v>4</v>
@@ -996,7 +929,7 @@
         <v>3</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M33" s="7" t="s">
         <v>8</v>
@@ -1024,7 +957,7 @@
         <v>4</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M35" s="4" t="s">
         <v>8</v>

--- a/MT.xlsx
+++ b/MT.xlsx
@@ -76,7 +76,10 @@
     <t xml:space="preserve">*</t>
   </si>
   <si>
-    <t xml:space="preserve">IIII</t>
+    <t xml:space="preserve">IIII*III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R</t>
   </si>
   <si>
     <t xml:space="preserve">L</t>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t xml:space="preserve">I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R</t>
   </si>
   <si>
     <t xml:space="preserve">H</t>
@@ -339,10 +339,10 @@
   <dimension ref="B1:N35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="7.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="11" style="0" width="20.41"/>
@@ -401,7 +401,7 @@
         <v>8</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F4" s="7" t="n">
         <v>0</v>
@@ -413,7 +413,7 @@
         <v>10</v>
       </c>
       <c r="I4" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="4" t="n">
         <v>0</v>
@@ -422,7 +422,7 @@
         <v>8</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N4" s="4" t="n">
         <v>0</v>
@@ -430,7 +430,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -438,7 +438,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>10</v>
@@ -450,10 +450,10 @@
         <v>0</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="N5" s="4" t="n">
         <v>1</v>
@@ -465,11 +465,11 @@
       </c>
       <c r="C6" s="4" t="str">
         <f aca="false">_xlfn.CONCAT("1-",LEN(C4))</f>
-        <v>1-4</v>
+        <v>1-8</v>
       </c>
       <c r="D6" s="4" t="n">
         <f aca="false">LEN(C4)+1</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F6" s="7" t="n">
         <v>1</v>
@@ -478,7 +478,7 @@
         <v>8</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I6" s="7" t="n">
         <v>2</v>
@@ -490,7 +490,7 @@
         <v>8</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N6" s="4" t="n">
         <v>2</v>
@@ -501,7 +501,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>10</v>
@@ -513,10 +513,10 @@
         <v>1</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="N7" s="4" t="n">
         <v>1</v>
@@ -530,7 +530,7 @@
         <v>8</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I8" s="7" t="n">
         <v>3</v>
@@ -555,10 +555,10 @@
         <v>2</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I9" s="7" t="n">
         <v>2</v>
@@ -567,10 +567,10 @@
         <v>2</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="N9" s="4" t="n">
         <v>3</v>
@@ -584,7 +584,7 @@
         <v>8</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I10" s="7" t="n">
         <v>4</v>
@@ -607,7 +607,7 @@
         <v>3</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>8</v>
@@ -619,10 +619,10 @@
         <v>3</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="N11" s="4" t="n">
         <v>3</v>
@@ -651,7 +651,7 @@
         <v>4</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>8</v>
@@ -678,7 +678,7 @@
         <v>8</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N14" s="7" t="n">
         <v>1</v>
@@ -693,10 +693,10 @@
         <v>0</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N15" s="7" t="n">
         <v>1</v>
@@ -714,7 +714,7 @@
         <v>8</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N16" s="7" t="n">
         <v>2</v>
@@ -725,10 +725,10 @@
         <v>1</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N17" s="7" t="n">
         <v>1</v>
@@ -742,7 +742,7 @@
         <v>8</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N18" s="7" t="n">
         <v>3</v>
@@ -753,10 +753,10 @@
         <v>2</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="N19" s="7" t="n">
         <v>2</v>
@@ -770,7 +770,7 @@
         <v>8</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N20" s="7" t="n">
         <v>4</v>
@@ -781,7 +781,7 @@
         <v>3</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7" t="s">
         <v>8</v>
@@ -809,7 +809,7 @@
         <v>4</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M23" s="4" t="s">
         <v>8</v>
@@ -834,7 +834,7 @@
         <v>8</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="N26" s="7" t="n">
         <v>0</v>
@@ -845,10 +845,10 @@
         <v>0</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="N27" s="7" t="n">
         <v>1</v>
@@ -862,7 +862,7 @@
         <v>8</v>
       </c>
       <c r="M28" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N28" s="7" t="n">
         <v>2</v>
@@ -873,10 +873,10 @@
         <v>1</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="N29" s="7" t="n">
         <v>1</v>
@@ -890,7 +890,7 @@
         <v>8</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N30" s="7" t="n">
         <v>3</v>
@@ -901,10 +901,10 @@
         <v>2</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="N31" s="7" t="n">
         <v>2</v>
@@ -918,7 +918,7 @@
         <v>8</v>
       </c>
       <c r="M32" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N32" s="7" t="n">
         <v>4</v>
@@ -929,7 +929,7 @@
         <v>3</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M33" s="7" t="s">
         <v>8</v>
@@ -957,7 +957,7 @@
         <v>4</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M35" s="4" t="s">
         <v>8</v>

--- a/MT.xlsx
+++ b/MT.xlsx
@@ -150,12 +150,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF729FCF"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -214,12 +220,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -227,20 +233,24 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -286,7 +296,7 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF729FCF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
@@ -339,10 +349,10 @@
   <dimension ref="B1:N35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="7.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="11" style="0" width="20.41"/>
@@ -361,6 +371,10 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="3" t="s">
@@ -391,40 +405,40 @@
       <c r="N3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="M4" s="4" t="s">
+      <c r="D4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="4" t="n">
+      <c r="N4" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -434,229 +448,229 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="F5" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" s="4" t="n">
+      <c r="F5" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="7" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4" t="str">
+      <c r="B6" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="7" t="str">
         <f aca="false">_xlfn.CONCAT("1-",LEN(C4))</f>
         <v>1-8</v>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="7" t="n">
         <f aca="false">LEN(C4)+1</f>
         <v>9</v>
       </c>
-      <c r="F6" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N6" s="4" t="n">
+      <c r="F6" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6" s="7" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F7" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" s="4" t="n">
+      <c r="F7" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="7" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F8" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="7" t="s">
+      <c r="F8" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="N8" s="4" t="n">
+      <c r="I8" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="K8" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8" s="7" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="8"/>
-      <c r="D9" s="9"/>
-      <c r="F9" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N9" s="4" t="n">
+      <c r="B9" s="9"/>
+      <c r="D9" s="10"/>
+      <c r="F9" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" s="7" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F10" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="7" t="s">
+      <c r="F10" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="M10" s="4" t="s">
+      <c r="I10" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="K10" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="N10" s="4" t="n">
+      <c r="N10" s="7" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F11" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I11" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N11" s="4" t="n">
+      <c r="F11" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="K11" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N11" s="7" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F12" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="4" t="s">
+      <c r="F12" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
+      <c r="I12" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F13" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I13" s="4" t="n">
+      <c r="F13" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="7" t="n">
         <v>4</v>
       </c>
       <c r="K13" s="6" t="s">
@@ -667,154 +681,154 @@
       <c r="N13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="K14" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="7" t="s">
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="K14" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="N14" s="7" t="n">
+      <c r="N14" s="8" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="K15" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="7" t="s">
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="K15" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="N15" s="7" t="n">
+      <c r="N15" s="8" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="K16" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N16" s="7" t="n">
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="K16" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="N16" s="8" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K17" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M17" s="7" t="s">
+      <c r="K17" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M17" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="N17" s="7" t="n">
+      <c r="N17" s="8" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K18" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="M18" s="7" t="s">
+      <c r="K18" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="M18" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="N18" s="7" t="n">
+      <c r="N18" s="8" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K19" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M19" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N19" s="7" t="n">
+      <c r="K19" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N19" s="8" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K20" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="M20" s="7" t="s">
+      <c r="K20" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="N20" s="7" t="n">
+      <c r="N20" s="8" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K21" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M21" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="N21" s="7" t="n">
+      <c r="K21" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="8" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K22" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="M22" s="4" t="s">
+      <c r="K22" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="N22" s="4" t="n">
+      <c r="N22" s="7" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K23" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="N23" s="4" t="n">
+      <c r="K23" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="N23" s="7" t="n">
         <v>4</v>
       </c>
     </row>
@@ -827,148 +841,148 @@
       <c r="N25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K26" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="M26" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N26" s="7" t="n">
+      <c r="K26" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N26" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K27" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M27" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N27" s="7" t="n">
+      <c r="K27" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N27" s="8" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K28" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="M28" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N28" s="7" t="n">
+      <c r="K28" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="N28" s="8" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K29" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M29" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N29" s="7" t="n">
+      <c r="K29" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N29" s="8" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K30" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="M30" s="7" t="s">
+      <c r="K30" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="M30" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="N30" s="7" t="n">
+      <c r="N30" s="8" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K31" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M31" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N31" s="7" t="n">
+      <c r="K31" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N31" s="8" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K32" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="M32" s="7" t="s">
+      <c r="K32" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="M32" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="N32" s="7" t="n">
+      <c r="N32" s="8" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K33" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M33" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="N33" s="7" t="n">
+      <c r="K33" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M33" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="N33" s="8" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K34" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="L34" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="M34" s="4" t="s">
+      <c r="K34" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M34" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="N34" s="4" t="n">
+      <c r="N34" s="7" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K35" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="L35" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="M35" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="N35" s="4" t="n">
+      <c r="K35" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M35" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="N35" s="7" t="n">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="K1:N2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="K3:N3"/>
     <mergeCell ref="B5:D5"/>
